--- a/data/Subset 1/Boats and Fish 1_Grade 4.xlsx
+++ b/data/Subset 1/Boats and Fish 1_Grade 4.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
